--- a/biology/Médecine/Lave-bassin/Lave-bassin.xlsx
+++ b/biology/Médecine/Lave-bassin/Lave-bassin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un lave-bassin (ou lave-bassins) est un dispositif permettant de vider, nettoyer et désinfecter les réceptacles à déjections humaines tels que bassins de lit, urinaux, bocaux à diurèse, seaux de chaises percées[1], etc.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un lave-bassin (ou lave-bassins) est un dispositif permettant de vider, nettoyer et désinfecter les réceptacles à déjections humaines tels que bassins de lit, urinaux, bocaux à diurèse, seaux de chaises percées, etc.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lave-bassin est utilisé dans les établissements de santé tels que cliniques, hôpitaux, EHPAD et de manière générale dans tout établissement qui héberge des patients continents ne pouvant cependant pas accéder aux toilettes.
-On trouve généralement les lave-bassins dans un local spécifique nommé local vidoir. Cette pièce est organisée selon le principe de la marche en avant (organisation qui fait cheminer l'utilisateur du plus sale au plus propre)[2].
+On trouve généralement les lave-bassins dans un local spécifique nommé local vidoir. Cette pièce est organisée selon le principe de la marche en avant (organisation qui fait cheminer l'utilisateur du plus sale au plus propre).
 Son utilisation permet d'éviter le vidage manuel qui, parce qu'il génère des éclaboussures risque de contaminer les lieux ainsi que le soignant. Il a aussi pour fonction de supprimer le nettoyage par brossage ou à la douchette qui génèrent des aérosols.
 Également appelé laveur-désinfecteur, il participe à la lutte contre les infections nosocomiales.
 </t>
@@ -545,14 +559,11 @@
           <t>Types de lave-bassin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux types de lave-bassin : le lave-bassin chimique et le lave-bassin thermique
-Lave-bassins chimiques
-Le lave-bassin à désinfection chimique permet d’effectuer une désinfection des réceptacles à déchets humains grâce à la pulvérisation d’un produit désinfectant. Il tend à disparaître en raison de son impact négatif sur l’environnement, du coût lié à son utilisation (consommable) et à la difficulté de garantir une exposition parfaite de l’ustensile à l’agent désinfectant.
-Lave-bassins thermiques
-Le lave-bassin thermique utilise l’eau du réseau pour le nettoyage. Cette eau est pulvérisée à haute pression par des buses fixes ou rotatives dans et sur les récipients. La désinfection thermique se fait au moyen d'un générateur de vapeur intégré ou une source de vapeur externe. La vapeur est injectée dans la chambre du lave-bassin par l’intermédiaire des tuyaux et des buses fixes et rotatives ayant servi au lavage afin de garantir une désinfection impeccable des récipients ainsi que de l’ensemble de la tuyauterie.
-Ce système préserve l’environnement et évite les allergies et autres problèmes dermiques et respiratoires liés à l’utilisation de produits chimiques. Parce que l’agent désinfectant est de la vapeur, il est aisé de contrôler la température et la durée du processus. La mémorisation de ces données permet de contrôler la qualité du fonctionnement de l’appareil.
 </t>
         </is>
       </c>
@@ -578,12 +589,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Norme</t>
+          <t>Types de lave-bassin</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La norme ISO 15883 définit la qualité du lavage et de la désinfection selon la méthode A0. La valeur A0 préconisée par la norme est A0 = 60.
+          <t>Lave-bassins chimiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lave-bassin à désinfection chimique permet d’effectuer une désinfection des réceptacles à déchets humains grâce à la pulvérisation d’un produit désinfectant. Il tend à disparaître en raison de son impact négatif sur l’environnement, du coût lié à son utilisation (consommable) et à la difficulté de garantir une exposition parfaite de l’ustensile à l’agent désinfectant.
 </t>
         </is>
       </c>
@@ -609,10 +626,83 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Types de lave-bassin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lave-bassins thermiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lave-bassin thermique utilise l’eau du réseau pour le nettoyage. Cette eau est pulvérisée à haute pression par des buses fixes ou rotatives dans et sur les récipients. La désinfection thermique se fait au moyen d'un générateur de vapeur intégré ou une source de vapeur externe. La vapeur est injectée dans la chambre du lave-bassin par l’intermédiaire des tuyaux et des buses fixes et rotatives ayant servi au lavage afin de garantir une désinfection impeccable des récipients ainsi que de l’ensemble de la tuyauterie.
+Ce système préserve l’environnement et évite les allergies et autres problèmes dermiques et respiratoires liés à l’utilisation de produits chimiques. Parce que l’agent désinfectant est de la vapeur, il est aisé de contrôler la température et la durée du processus. La mémorisation de ces données permet de contrôler la qualité du fonctionnement de l’appareil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lave-bassin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lave-bassin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Norme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La norme ISO 15883 définit la qualité du lavage et de la désinfection selon la méthode A0. La valeur A0 préconisée par la norme est A0 = 60.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lave-bassin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lave-bassin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lave-bassin fonctionne généralement en trois phases :
 Une phase de vidage des déchets. Celui-ci peut se faire par simple fermeture de la porte ou par retournement du support. Cette fonction explique le besoin de raccorder une évacuation de diamètre adapté à un circuit dit « eaux vannes ».
